--- a/datos/SIPAP_pestañas/Entidades Financieras 05.xlsx
+++ b/datos/SIPAP_pestañas/Entidades Financieras 05.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TrabajoPracticoR\RStudio\datos\SIPAP_pestañas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tarea_Estadistica\RStudio\datos\SIPAP_pestañas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D55CF0E1-EA5E-4268-B096-A608EDDE0CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1E99D03A-DA3D-48E4-9309-A5850A9747A4}"/>
+    <workbookView minimized="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -389,7 +388,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -786,11 +785,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F444896-1AE4-453A-BF47-6F89326E1310}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
